--- a/Documents/Wiring pinout.xlsx
+++ b/Documents/Wiring pinout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="76">
   <si>
     <t>from BATTERY</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>TRIGGER 2</t>
-  </si>
-  <si>
-    <t>'+12V OUT (Monitor)</t>
   </si>
 </sst>
 </file>
@@ -536,36 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -613,6 +580,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,16 +930,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="40" t="s">
         <v>49</v>
       </c>
     </row>
@@ -950,7 +947,7 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="41" t="s">
         <v>49</v>
       </c>
     </row>
@@ -958,30 +955,30 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="56"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -989,7 +986,7 @@
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -997,7 +994,7 @@
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1005,7 +1002,7 @@
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1013,7 +1010,7 @@
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1021,7 +1018,7 @@
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1048,7 +1045,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,26 +1058,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1088,13 +1085,13 @@
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1102,7 +1099,7 @@
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -1116,7 +1113,7 @@
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1130,7 +1127,7 @@
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1144,7 +1141,7 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1164,7 +1161,7 @@
       <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1172,19 +1169,19 @@
       <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="56"/>
       <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1192,13 +1189,13 @@
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>76</v>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1212,7 +1209,7 @@
       <c r="D13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1249,12 +1246,12 @@
         <v>5</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="49" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1263,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,34 +1270,34 @@
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="44">
         <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56">
+      <c r="A20" s="46">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="62"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="62"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="62"/>
+      <c r="E23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1329,10 +1326,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="21" t="s">
         <v>54</v>
       </c>
@@ -1341,49 +1338,49 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="59" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1395,7 +1392,7 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
@@ -1405,7 +1402,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="3" t="s">
         <v>58</v>
       </c>
@@ -1415,7 +1412,7 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1425,7 +1422,7 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1432,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
@@ -1445,7 +1442,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="58" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1457,7 +1454,7 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1467,7 +1464,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1477,7 +1474,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1487,7 +1484,7 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
@@ -1497,7 +1494,7 @@
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="4" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1504,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="59" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1519,7 +1516,7 @@
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1561,26 +1558,26 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1588,13 +1585,13 @@
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="28" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1658,7 +1655,7 @@
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1672,7 +1669,7 @@
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="1"/>
@@ -1681,25 +1678,25 @@
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1707,13 +1704,13 @@
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="34" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1727,7 +1724,7 @@
       <c r="D14" s="18">
         <v>3</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1741,7 +1738,7 @@
       <c r="D15" s="18">
         <v>4</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1749,13 +1746,13 @@
       <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="49" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="18">
         <v>5</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1763,7 +1760,7 @@
       <c r="D17" s="19">
         <v>6</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="43" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1797,16 +1794,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1814,7 +1811,7 @@
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="28" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1886,241 +1883,241 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
@@ -2153,14 +2150,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="56"/>
+      <c r="D2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2275,10 +2272,10 @@
       <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
